--- a/app/public/json/prodata.xlsx
+++ b/app/public/json/prodata.xlsx
@@ -8,19 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="男性健康滋补" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="女性健康面容" sheetId="2" r:id="rId2"/>
+    <sheet name="综合健康护理" sheetId="3" r:id="rId3"/>
+    <sheet name="舒缓调理" sheetId="4" r:id="rId4"/>
+    <sheet name="提升免疫力" sheetId="5" r:id="rId5"/>
+    <sheet name="美容养颜" sheetId="6" r:id="rId6"/>
+    <sheet name="内脏保健" sheetId="7" r:id="rId7"/>
+    <sheet name="骨骼健康" sheetId="8" r:id="rId8"/>
+    <sheet name="明目健脑" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
-  <si>
-    <t>manyuemei.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,15 +68,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男性健康滋补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女性美容</t>
+    <t>manyuemei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋鼠精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daishujing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kangaroo Essence袋鼠精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒含6000mg袋鼠肉提取精华，功效更强！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋鼠粉（600mg/粒）、角豆荚、维生素C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性肾虚腰酸，性功能减退，病后体虚，精力不济，生活不规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保肝宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoganning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60粒/180粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜黄，葛根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常饮酒、吸烟、肝火旺盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合有肝脏问题困扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health Complex保肝宁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +165,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,11 +197,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,129 +501,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +608,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -572,11 +810,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/app/public/json/prodata.xlsx
+++ b/app/public/json/prodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="男性健康滋补" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,30 @@
   </si>
   <si>
     <t>Health Complex保肝宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高浓度葡萄籽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putaozi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒6000mg高浓度提取，是市场上同类产品的4-6倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄籽提取物，卵磷脂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肤色按成，毛孔粗大，长时间面对电子辐射，生活不规律，熬夜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -609,72 +633,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/app/public/json/prodata.xlsx
+++ b/app/public/json/prodata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270" activeTab="1"/>
+    <workbookView xWindow="-8760" yWindow="2085" windowWidth="27975" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="男性健康滋补" sheetId="1" r:id="rId1"/>
@@ -22,32 +22,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔓越莓高浓度胶囊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>specification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25000mg 30粒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清爽怡人的身体清洁露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ingredient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,18 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔓越莓提取物500毫克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此亚属的物种均为常绿灌木，主要生长在北半球的凉爽地带酸性泥炭土壤中。花深粉红色，总状花序。红色浆果可做水果食用。蔓越莓是一种天然抗菌保健水果，是防治女性日常泌尿系统各种细菌感染、尿道炎、膀胱炎、慢性肾盂肾炎的最佳自然食疗食品。蔓越莓是为数不多的可以在酸性泥土里生长的农作物，它们需要大量的水。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,75 +64,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kangaroo Essence袋鼠精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90粒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每一粒含6000mg袋鼠肉提取精华，功效更强！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>保肝宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoganning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60粒/180粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高浓度葡萄籽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putaozi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒6000mg高浓度提取，是市场上同类产品的4-6倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄籽提取物，卵磷脂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肤色按成，毛孔粗大，长时间面对电子辐射，生活不规律，熬夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30粒/90粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒70000mg蔓越莓高浓度提取，是市场上同类产品的3-4倍！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓提取物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓守护女性健康的秘密,蔓越莓是一种天然抗菌保健水果，是防治女性日常泌尿系统各种细菌感染的最佳自然食疗食品。蔓越莓中的浓缩单宁酸，能防止抗药性的菌种粘附于人体内衬组织细胞上，有效抑制细菌滋生，防止病菌进入盆腔，帮助预防输卵管系统发炎和改善泌尿系统的健康。释放蔓越莓的神奇能量
+1、有效改善女性泌尿系统，预防妇科炎症，呵护盆腔健康
+2、有效抑制细菌，降低胃溃疡及胃癌发生率
+3、调节生理，促进胶原蛋白合成，由内而外带来好气色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>袋鼠粉（600mg/粒）、角豆荚、维生素C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男性肾虚腰酸，性功能减退，病后体虚，精力不济，生活不规律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保肝宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baoganning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60粒/180粒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜黄，葛根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经常饮酒、吸烟、肝火旺盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适合有肝脏问题困扰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health Complex保肝宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高浓度葡萄籽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>putaozi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60粒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一粒6000mg高浓度提取，是市场上同类产品的4-6倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葡萄籽提取物，卵磷脂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肤色按成，毛孔粗大，长时间面对电子辐射，生活不规律，熬夜</t>
+    <t>袋鼠精因富含天然雄性荷尔蒙、男性生殖系统必须的氨基酸、多糖肽，成为解决男性多种性功能障碍、前列腺炎、精力疲乏的佳品。澳洲袋鼠以其精力旺盛及繁殖力极强而著称于世，优质的袋鼠精也正是提取自澳洲野生成年雄性袋鼠的肌肉及生殖器组织中，具有补肾强精、益气提神之功效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水飞蓟、姜黄、葛根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在澳洲，全民酷爱饮酒，但肝病的发病率却很低，用奶蓟草做成的保肝宁是每个家庭的必备良药。D&amp;X保肝宁集合了多种护肝养肝的成分在内，能全面地呵护脏器健康。其中主要成分“水飞蓟”是一种适应性很强的植物，可以帮助肝脏排毒，保护肝细胞，促进肝细胞再生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月见草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuejiancao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒含月见草油高达1200mg，加倍呵护！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月见草油（1200mg/粒）、γ亚麻酸（GLA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月见草中所含的GLA可以抑制引起发炎作用的前列腺素浓度，减轻经前症候群和更年期的不适反应。月见草在欧洲被称为“皇室御药”或“国王药物”，其主要功效成分是γ亚麻酸（GLA），又被称为维生素F，对于改善经前综合症、缓解乳房肿胀、调节内分泌，保护卵巢、延缓衰老等均有显著疗效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高浓度无腥深海鱼油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenhaiyuyou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼油（1500mg/粒）、维生素E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒含1500mg深海鱼油，高浓度配方！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海鱼油富含omega-3脂肪酸、DHA和EPA等营养物质，对心血管、大脑、关节和视力均有益处，全家适用。Omega-3：增强免疫力;EPA：血管清道夫;DHA：护脑专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维骨素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30粒/90粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氨基葡萄糖（1500mg/粒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒氨基葡萄糖含量高达1500mg，更好修复关节磨损！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维骨素的主要成分为氨基葡萄糖，是健康关节软骨的天然组织成分。氨基葡萄糖是软骨基质和关节滑液的天然成分，对于关节活动有着重要的作用。
+随着年龄增长，人体内的氨基葡萄糖流失，关节软骨不断退化和磨损，补充氨基葡萄糖可以帮助修复和维护软骨，并刺激软骨细胞的生长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机螺旋藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoxuanzao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90粒/270粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用人群：·免疫力低下·亚健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机螺旋藻、硬脂酸镁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋藻是在自然环境中成长起来的有机食物，内含丰富的营养素，是纯天然的保健食品。有机螺旋藻的蛋白质含量高达60-70%，且消化吸收率高达95%以上，可有效提高淋巴细胞活性，增强人体免疫力，还具有维持血液酸碱平衡、降低胆固醇、防止贫血、帮助脂肪代谢等功效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingfeiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清肺灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用人群：·咳嗽、呼吸气喘、胸闷·花粉过敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷叶、川贝母、甘草、灵芝、牛蒡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端配方，富含草本精华，维他命和矿物质，支持肺部及呼吸系统健康，并帮助维护免疫系统健康。高端配方，富含草本精华，维他命和矿物质，支持肺部及呼吸系统健康，并帮助维护免疫系统健康。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅酶Q10</t>
+  </si>
+  <si>
+    <t>辅酶Q10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fumei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一粒含辅酶Q10高达150mg，更好吸收！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅酶Q10（150mg/粒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着年龄增长，辅酶Q10流失将引起各种心血管疾病，及时补充辅酶Q10能有效保护心脏，为心肌提供充足氧气。辅酶Q10天然存在于人体内，是人体必需的营养素，能激活人体细胞和细胞能量的营养，具有提高人体免疫力、增强抗氧化、延缓衰老和增强人体活力等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合有肝脏问题困扰;经常饮酒、吸烟、肝火旺盛;经常接触有毒化学物质;生活在重度污染环境中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weigusu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +353,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -544,79 +676,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="107.25" customHeight="1">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1">
+    <row r="7" spans="1:4" ht="124.5" customHeight="1">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -633,10 +744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -644,82 +755,104 @@
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="32.875" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="27">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="27">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="134.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -731,50 +864,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="27">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" ht="94.5">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +943,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -800,14 +955,97 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="14.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="27">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -817,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -830,14 +1068,97 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:H42"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="14.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="123" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="27">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,12 +1166,75 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="14.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="54">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="27">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" ht="135">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -861,7 +1245,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
